--- a/Excel RPG/Game/Game.xlsx
+++ b/Excel RPG/Game/Game.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="Input" comment="Player input">Sheet1!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterate="1" iterateCount="10" iterateDelta="0.1"/>
+  <calcPr calcId="145621" iterate="1" iterateCount="1" iterateDelta="0.1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Input</t>
   </si>
@@ -39,7 +39,22 @@
     <t>\/\/\/\/\/</t>
   </si>
   <si>
-    <t>b</t>
+    <t>something</t>
+  </si>
+  <si>
+    <t>goes</t>
+  </si>
+  <si>
+    <t>inside</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>some other thing</t>
+  </si>
+  <si>
+    <t>no touch pls</t>
   </si>
 </sst>
 </file>
@@ -468,7 +483,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,9 +503,7 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
@@ -507,16 +520,28 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -579,16 +604,28 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="F15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel RPG/Game/Game.xlsx
+++ b/Excel RPG/Game/Game.xlsx
@@ -483,7 +483,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel RPG/Game/Game.xlsx
+++ b/Excel RPG/Game/Game.xlsx
@@ -187,7 +187,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -546,13 +546,13 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" t="str">
-        <f>[1]!UB1V1H</f>
+        <f ca="1">[1]!UB1V1H</f>
         <v/>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2"/>
       <c r="H7" t="str">
-        <f>[1]!OB1V1H</f>
+        <f ca="1">[1]!OB1V1H</f>
         <v/>
       </c>
       <c r="J7" s="2"/>
@@ -562,7 +562,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="2"/>
       <c r="H8" t="str">
-        <f>[1]!OB1V2H</f>
+        <f ca="1">[1]!OB1V2H</f>
         <v/>
       </c>
       <c r="J8" s="2"/>

--- a/Excel RPG/Game/Game.xlsx
+++ b/Excel RPG/Game/Game.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6390" windowWidth="9780" windowHeight="6435"/>
+    <workbookView xWindow="0" yWindow="6390" windowWidth="10365" windowHeight="6435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="Input" comment="Player input">Sheet1!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterate="1" iterateCount="1" iterateDelta="0.1"/>
+  <calcPr calcId="145621" iterate="1" iterateCount="10" iterateDelta="0.1"/>
 </workbook>
 </file>
 
@@ -183,6 +183,16 @@
       <sheetData sheetId="1">
         <row r="4">
           <cell r="B4" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
             <v/>
           </cell>
         </row>
@@ -483,7 +493,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,6 +569,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
+      <c r="B8" t="str">
+        <f ca="1">[1]USERBOX!$B$8</f>
+        <v/>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="2"/>
       <c r="H8" t="str">
@@ -569,6 +583,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
+      <c r="B9" t="str">
+        <f ca="1">[1]USERBOX!$B$12</f>
+        <v/>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="2"/>
       <c r="J9" s="2"/>
